--- a/전문가WorkShop/경기도 전력공급 및 에너지소비 현황과 이슈/피피티 흐름.xlsx
+++ b/전문가WorkShop/경기도 전력공급 및 에너지소비 현황과 이슈/피피티 흐름.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\전문가WorkShop\경기도 전력공급 및 에너지소비 현황과 이슈\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9641E99E-3C1D-4F55-91EA-81B2BB5402F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39BF74A-3FE5-49A0-9297-27629D31D474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{B54CB7BC-368B-4E3B-8941-5437A307C542}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{B54CB7BC-368B-4E3B-8941-5437A307C542}"/>
   </bookViews>
   <sheets>
     <sheet name="전력발전" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -890,18 +890,15 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -1476,10 +1473,9 @@
       <c r="F19" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>87510402.28057076</v>
       </c>
-      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E20" t="s">
@@ -1488,10 +1484,10 @@
       <c r="F20" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>76598947</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>53871431</v>
       </c>
     </row>
@@ -1502,10 +1498,10 @@
       <c r="F21" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>0.87531247718885941</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>0.61560031260375825</v>
       </c>
     </row>
@@ -1645,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D832FA4F-5DBC-4036-92A0-B37024520E22}">
-  <dimension ref="A4:I38"/>
+  <dimension ref="A4:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1661,215 +1657,119 @@
     <col min="7" max="7" width="49.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>51</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="F8" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="F9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="F10" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="F11" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F14" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>2</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>3</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>4</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>49</v>
       </c>
     </row>
